--- a/UNIFORM-DISTRIBUTION.xlsx
+++ b/UNIFORM-DISTRIBUTION.xlsx
@@ -111,7 +111,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>100171.0</v>
+        <v>99755.0</v>
       </c>
     </row>
     <row r="3">
@@ -119,7 +119,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>99997.0</v>
+        <v>100321.0</v>
       </c>
     </row>
     <row r="4">
@@ -127,7 +127,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>100179.0</v>
+        <v>99975.0</v>
       </c>
     </row>
     <row r="5">
@@ -135,7 +135,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>100028.0</v>
+        <v>99833.0</v>
       </c>
     </row>
     <row r="6">
@@ -143,7 +143,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>99309.0</v>
+        <v>100169.0</v>
       </c>
     </row>
     <row r="7">
@@ -151,7 +151,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>99776.0</v>
+        <v>99614.0</v>
       </c>
     </row>
     <row r="8">
@@ -159,7 +159,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>100224.0</v>
+        <v>99492.0</v>
       </c>
     </row>
     <row r="9">
@@ -167,7 +167,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>100424.0</v>
+        <v>100490.0</v>
       </c>
     </row>
     <row r="10">
@@ -175,7 +175,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>100463.0</v>
+        <v>100032.0</v>
       </c>
     </row>
     <row r="11">
@@ -183,7 +183,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>99429.0</v>
+        <v>100319.0</v>
       </c>
     </row>
   </sheetData>
